--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4257332.112055678</v>
+        <v>4250315.097163967</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>108.8640957525906</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>375.8558292490999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.27559683049722</v>
       </c>
       <c r="V4" t="n">
-        <v>223.8243835520302</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>43.28491580493988</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.62363183383287</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686257</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6210949690525</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>174.5105150288493</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>307.7743159237147</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>32.52882640960883</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>24.01153903325422</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.562624396424693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
-        <v>20.53226464137142</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>36.88713826833454</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I22" t="n">
-        <v>78.3122789930156</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>148.7627888757562</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>106.5715106210554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>188.8929318614246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>131.9449639646222</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.798749490599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>109.1880071964681</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,10 +3720,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>9.302585820721601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T46" t="n">
-        <v>73.317672540057</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.6042763530502</v>
+        <v>962.9693282917585</v>
       </c>
       <c r="C2" t="n">
-        <v>974.6042763530502</v>
+        <v>594.0068113513469</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>594.0068113513469</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>594.0068113513469</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>587.0613106021434</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.6042763530502</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="3">
@@ -4400,52 +4400,52 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124033</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C5" t="n">
-        <v>1309.714918859356</v>
+        <v>1413.14885430879</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.714918859356</v>
+        <v>1054.883155702039</v>
       </c>
       <c r="E5" t="n">
-        <v>923.9266662611112</v>
+        <v>669.0949031037949</v>
       </c>
       <c r="F5" t="n">
-        <v>512.9407614715037</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>94.97695336969059</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>94.97695336969059</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4579,16 +4579,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696253</v>
+        <v>251.0851341348652</v>
       </c>
       <c r="E8" t="n">
-        <v>478.852290671381</v>
+        <v>251.0851341348652</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>244.1396333856617</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>230.2162293242527</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2331.237254151024</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I10" t="n">
         <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>695.2715837926879</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>695.2715837926879</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>695.2715837926879</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>695.2715837926879</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>695.2715837926879</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>467.2820328946706</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511404</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5032,7 +5032,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5074,7 +5074,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5132,13 +5132,13 @@
         <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.010087623274</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169049</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W13" t="n">
-        <v>330.8254548799443</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>102.8359039819269</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5263,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5281,22 +5281,22 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1167.181495781369</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>877.7643257444088</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5597,19 +5597,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1461.656534933322</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.52789614688</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1172.52789614688</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>883.1107261099196</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>655.1211752119023</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>345.2565865023499</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>176.320403574443</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>176.320403574443</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>176.320403574443</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>176.320403574443</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G22" t="n">
-        <v>176.320403574443</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H22" t="n">
-        <v>176.320403574443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>754.894602230607</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>526.9050513325897</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>526.9050513325897</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6071,22 +6071,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>2013.406634128704</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3718.603078877121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3718.603078877121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3718.603078877121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4375.728611056778</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4121.044122850892</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>4121.044122850892</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>4121.044122850892</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>3900.251543707361</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>4529.42116727748</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>4240.003997240519</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4012.014446342502</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>3791.221867198972</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3054.076152669715</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3361.396285949676</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3691.258913613709</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3720.806624707064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3720.806624707064</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>3902.455089537304</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3902.455089537304</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>3902.455089537304</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.8027887886592</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>527.8027887886592</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188989</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>709.4512536188989</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4093.25603081147</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3865.266479913453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3752.338450124969</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,34 +7186,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>376.4441907482616</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>207.5080078203547</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>207.5080078203547</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>207.5080078203547</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>207.5080078203547</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1065.814293928898</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>837.8247430308809</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>837.8247430308809</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7730,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3756.161980826922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3756.161980826922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>4675.721214485151</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4386.592575698709</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4386.592575698709</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4386.592575698709</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4158.603024800692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3937.810445657161</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>20.63789864135478</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,22 +9245,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>306.1147370139962</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>32.92248665775651</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>38.86002301949912</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,10 +9974,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>20.63789864135305</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>253.7371603504738</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>94.13752431970613</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>444.488938686166</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>262.2258133653231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.0220289556701</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
-        <v>231.6053786824566</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>184.6604227900547</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I22" t="n">
-        <v>32.1069664712564</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>137.4745635228212</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>145.5661327027726</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>97.63006647516644</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>16.67050905359014</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.7859038614958</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.30556126690945</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>277.2204125158694</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T46" t="n">
-        <v>148.2298885183322</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588804</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613223.9805588804</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="N2" t="n">
         <v>762506.6664885327</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.73165600751</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007431</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007486</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007544</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007487</v>
-      </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20228.28037619835</v>
+        <v>-20228.28037619867</v>
       </c>
       <c r="C6" t="n">
         <v>569739.598838346</v>
@@ -26530,40 +26530,40 @@
         <v>569739.5988383462</v>
       </c>
       <c r="E6" t="n">
-        <v>137442.5724069124</v>
+        <v>136467.9811471906</v>
       </c>
       <c r="F6" t="n">
-        <v>662602.6088838081</v>
+        <v>661628.0176240866</v>
       </c>
       <c r="G6" t="n">
-        <v>662602.6088838083</v>
+        <v>661628.0176240866</v>
       </c>
       <c r="H6" t="n">
-        <v>662602.6088838085</v>
+        <v>661628.0176240865</v>
       </c>
       <c r="I6" t="n">
-        <v>662602.608883808</v>
+        <v>661628.0176240866</v>
       </c>
       <c r="J6" t="n">
-        <v>486179.3896912152</v>
+        <v>485204.7984314937</v>
       </c>
       <c r="K6" t="n">
-        <v>662602.608883808</v>
+        <v>661628.0176240868</v>
       </c>
       <c r="L6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240865</v>
       </c>
       <c r="M6" t="n">
-        <v>527801.5936499711</v>
+        <v>526827.0023902494</v>
       </c>
       <c r="N6" t="n">
-        <v>662602.6088838086</v>
+        <v>661628.0176240869</v>
       </c>
       <c r="O6" t="n">
-        <v>662602.6088838081</v>
+        <v>661628.0176240867</v>
       </c>
       <c r="P6" t="n">
-        <v>662602.6088838083</v>
+        <v>661628.0176240867</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>245.8189458680924</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>37.9283407716951</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114805</v>
       </c>
       <c r="V4" t="n">
-        <v>28.31325977179779</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>363.5911299367716</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>111.3076844110284</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167442</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>19.90190336753847</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>149.4122577355078</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>19.97794254642025</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>179.6167125404101</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29514,13 +29514,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,19 +29562,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-8.677164721418741e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31044,10 +31044,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31220,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>227.7313135728794</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35965,22 +35965,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36214,16 +36214,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>315.2861888988646</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>321.2237252606072</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>269.8956035973773</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>586.9317337484866</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>376.5012265608142</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4250315.097163967</v>
+        <v>4255254.360013</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>375.8558292490999</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>34.31940075816931</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>9.27559683049722</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>43.28491580493988</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>11.69618619141295</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,19 +1065,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31590541686257</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>174.5105150288493</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>249.5404099831623</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>46.80807769362107</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.46389722690851</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>24.01153903325422</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>156.3269092431762</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>29.09084106573959</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805198</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -3006,13 +3006,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385031</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.562624396424889</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.562624396425115</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.9693282917585</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C2" t="n">
-        <v>594.0068113513469</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>594.0068113513469</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>594.0068113513469</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>587.0613106021434</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,31 +4327,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4363,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592772</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.56916835588</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942406</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124033</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810051</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.111371249201</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>1413.14885430879</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>1054.883155702039</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>669.0949031037949</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4603,16 +4603,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2454.12858437661</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2101.359929106496</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355898</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355898</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355898</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>79.51460345355898</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I7" t="n">
-        <v>79.51460345355898</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>609.3508327416157</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>251.0851341348652</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>251.0851341348652</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>244.1396333856617</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>230.2162293242527</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1629.057220972394</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>865.4521307355028</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>578.0123447940986</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>430.0992512117055</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>283.2093037137951</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521276</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521276</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,49 +5026,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.095276920732</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O12" t="n">
-        <v>2187.63534213943</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P12" t="n">
-        <v>2392.657822921639</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1050.956765431391</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V13" t="n">
-        <v>796.2722772255036</v>
+        <v>940.8065594007854</v>
       </c>
       <c r="W13" t="n">
-        <v>506.8551071885429</v>
+        <v>940.8065594007854</v>
       </c>
       <c r="X13" t="n">
-        <v>278.8655562905255</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,13 +5263,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,31 +5345,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>557.4905621634935</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355866</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,13 +5439,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>959.9316061372633</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>739.1390269937332</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,67 +5974,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
         <v>1198.760773441947</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6189,10 +6189,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,52 +6697,52 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6964,10 +6964,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7356,7 +7356,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1382.222354598087</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7408,55 +7408,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,13 +7499,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7830,22 +7830,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>145.2351313103793</v>
+        <v>15.83804904622771</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305164</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>73.53204524670002</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.03744927814691</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>262.2258133653231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>95.81073408065183</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>137.402727397638</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>33.38685156731853</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>192.3581855871784</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>192.3581855871781</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613223.9805588804</v>
+        <v>613223.9805588806</v>
       </c>
     </row>
     <row r="6">
@@ -26316,22 +26316,22 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="I2" t="n">
         <v>762506.6664885323</v>
@@ -26340,19 +26340,19 @@
         <v>762506.6664885324</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="L2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="M2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="N2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="O2" t="n">
         <v>762506.6664885322</v>
-      </c>
-      <c r="M2" t="n">
-        <v>762506.6664885322</v>
-      </c>
-      <c r="N2" t="n">
-        <v>762506.6664885327</v>
-      </c>
-      <c r="O2" t="n">
-        <v>762506.6664885324</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885324</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26429,31 +26429,31 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007533</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007523</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007431</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
@@ -26469,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20228.28037619867</v>
+        <v>-20228.28037619832</v>
       </c>
       <c r="C6" t="n">
+        <v>569739.5988383461</v>
+      </c>
+      <c r="D6" t="n">
         <v>569739.598838346</v>
       </c>
-      <c r="D6" t="n">
-        <v>569739.5988383462</v>
-      </c>
       <c r="E6" t="n">
-        <v>136467.9811471906</v>
+        <v>137345.1132809398</v>
       </c>
       <c r="F6" t="n">
-        <v>661628.0176240866</v>
+        <v>662505.1497578365</v>
       </c>
       <c r="G6" t="n">
-        <v>661628.0176240866</v>
+        <v>662505.1497578365</v>
       </c>
       <c r="H6" t="n">
-        <v>661628.0176240865</v>
+        <v>662505.1497578362</v>
       </c>
       <c r="I6" t="n">
-        <v>661628.0176240866</v>
+        <v>662505.149757836</v>
       </c>
       <c r="J6" t="n">
-        <v>485204.7984314937</v>
+        <v>486081.930565243</v>
       </c>
       <c r="K6" t="n">
-        <v>661628.0176240868</v>
+        <v>662505.149757836</v>
       </c>
       <c r="L6" t="n">
-        <v>661628.0176240865</v>
+        <v>662505.1497578362</v>
       </c>
       <c r="M6" t="n">
-        <v>526827.0023902494</v>
+        <v>527704.1345239989</v>
       </c>
       <c r="N6" t="n">
-        <v>661628.0176240869</v>
+        <v>662505.1497578362</v>
       </c>
       <c r="O6" t="n">
-        <v>661628.0176240867</v>
+        <v>662505.149757836</v>
       </c>
       <c r="P6" t="n">
-        <v>661628.0176240867</v>
+        <v>662505.1497578362</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>37.9283407716951</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27435,10 +27435,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>216.90476675012</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114805</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>363.5911299367716</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>316.056072278722</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J7" t="n">
-        <v>19.88405377167442</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>149.4122577355078</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>99.70055873425068</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>120.5017245654298</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.5017245654297</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-8.677164721418741e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31220,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.2481640954534</v>
+        <v>103.8510818313019</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541599</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>355.8957474878082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -37080,7 +37080,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
